--- a/db/db_analysis/query_execution_times_4-8-2021-03-21.xlsx
+++ b/db/db_analysis/query_execution_times_4-8-2021-03-21.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{868C0D74-3D1D-ED40-A78B-562201A1CF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F3FE9-641E-5849-ADAD-EE3F1874EF39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="3600" windowWidth="43400" windowHeight="22900" activeTab="5"/>
+    <workbookView xWindow="22220" yWindow="4340" windowWidth="43400" windowHeight="22900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-8-2021-" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,12 @@
     <sheet name="7" sheetId="5" r:id="rId5"/>
     <sheet name="8" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="644">
   <si>
     <t>8f30001f9d8fbdd12cf2c549c1d18aecb5179c6e93b134408aa10e6e5133a61c</t>
   </si>
@@ -5352,11 +5348,374 @@
   <si>
     <t>order</t>
   </si>
+  <si>
+    <t>Finalize Aggregate  (cost=7102640.62..7102640.63 rows=1 width=8) (actual time=99859.902..99859.902 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=7102640.40..7102640.61 rows=2 width=8) (actual time=99853.461..104792.623 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Workers Planned: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Workers Launched: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=7101640.40..7101640.41 rows=1 width=8) (actual time=99799.546..99799.546 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1711237.38..6740473.11 rows=144466918 width=0) (actual time=86365.676..98466.988 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Hash Cond: (ord.id = ord_det.order_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96734.63..2414341.60 rows=50000100 width=8) (actual time=8275.318..15092.905 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Hash Cond: (ord.deliverer_id = del.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96697.63..643467.73 rows=8333350 width=16) (actual time=8273.927..13243.626 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord.customer_id = cus.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=24) (actual time=2.726..4251.605 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Hash Cond: (ord.discount_id = dis.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on ""order"" ord  (cost=0.00..250000.50 rows=8333350 width=32) (actual time=1.750..1760.315 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=0.911..0.911 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Buckets: 1024  Batches: 1  Memory Usage: 28kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.667..0.771 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1330.603..1330.604 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 128  Memory Usage: 2592kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.724..535.398 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=1.342..1.343 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Buckets: 2048  Batches: 1  Memory Usage: 17kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=1.316..1.321 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1219476.01..1219476.01 rows=24077820 width=8) (actual time=62205.730..62205.730 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Buckets: 131072  Batches: 1024  Memory Usage: 3392kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=29631.68..1219476.01 rows=24077820 width=8) (actual time=12910.285..27352.964 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord_det.product_id = prod.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.922..5864.327 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=22795.34..22795.34 rows=416667 width=8) (actual time=442.417..442.417 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 16  Memory Usage: 3552kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash Join  (cost=2589.50..22795.34 rows=416667 width=8) (actual time=46.994..317.782 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Hash Cond: (prod.subcategory_id = sub.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.818..95.394 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Hash  (cost=1964.50..1964.50 rows=50000 width=8) (actual time=45.875..45.875 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  Buckets: 65536  Batches: 1  Memory Usage: 2466kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  -&gt;  Hash Join  (cost=309.00..1964.50 rows=50000 width=8) (actual time=5.679..33.831 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        Hash Cond: (sub.category_id = cat.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=16) (actual time=0.505..8.865 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Hash  (cost=184.00..184.00 rows=10000 width=8) (actual time=5.075..5.076 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              Buckets: 16384  Batches: 1  Memory Usage: 519kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              -&gt;  Seq Scan on category cat  (cost=0.00..184.00 rows=10000 width=8) (actual time=0.483..2.629 rows=10000 loops=3)",,,,,,,,,""</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=6988040.81..6988040.82 rows=1 width=8) (actual time=97129.249..97129.250 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=6988040.59..6988040.80 rows=2 width=8) (actual time=97122.356..102087.776 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=6987040.59..6987040.60 rows=1 width=8) (actual time=97067.791..97067.792 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1711221.13..6625873.30 rows=144466918 width=0) (actual time=84622.966..95778.997 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96718.38..2299741.79 rows=50000100 width=8) (actual time=6865.229..13447.388 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96681.38..528867.92 rows=8333350 width=16) (actual time=6862.826..11651.802 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on ""order"" ord  (cost=0.00..250000.50 rows=8333350 width=24) (actual time=1.918..2552.762 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1517.209..1517.210 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.877..515.037 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=2.316..2.317 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=2.290..2.292 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1219476.01..1219476.01 rows=24077820 width=8) (actual time=61530.614..61530.615 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=29631.68..1219476.01 rows=24077820 width=8) (actual time=12299.989..26363.613 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.886..5806.830 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=22795.34..22795.34 rows=416667 width=8) (actual time=433.119..433.120 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 16  Memory Usage: 3520kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash Join  (cost=2589.50..22795.34 rows=416667 width=8) (actual time=55.601..311.560 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.756..91.753 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Hash  (cost=1964.50..1964.50 rows=50000 width=8) (actual time=54.478..54.478 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  -&gt;  Hash Join  (cost=309.00..1964.50 rows=50000 width=8) (actual time=6.054..39.584 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=16) (actual time=0.494..11.121 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Hash  (cost=184.00..184.00 rows=10000 width=8) (actual time=5.442..5.443 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              -&gt;  Seq Scan on category cat  (cost=0.00..184.00 rows=10000 width=8) (actual time=0.469..2.797 rows=10000 loops=3)",,,,,,,,,""</t>
+  </si>
+  <si>
+    <t>2021-03-22 00:34:41.461 CET,"postgres","shop_db",9788,"127.0.0.1:60483",60574e54.263c,360,"",2021-03-21 14:47:00 CET,4/368,0,LOG,00000,"duration: 93836.607 ms  plan:</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=7094321.94..7094321.95 rows=1 width=8) (actual time=99306.512..99306.512 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=7094321.73..7094321.94 rows=2 width=8) (actual time=99301.586..104392.734 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=7093321.73..7093321.74 rows=1 width=8) (actual time=99252.837..99252.841 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1702918.71..6732154.44 rows=144466917 width=0) (actual time=86972.954..98033.941 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96734.63..2414341.60 rows=50000100 width=8) (actual time=9112.853..15759.715 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96697.63..643467.73 rows=8333350 width=16) (actual time=9111.158..13954.161 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=24) (actual time=3.531..4394.422 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on ""order"" ord  (cost=0.00..250000.50 rows=8333350 width=32) (actual time=2.049..1822.685 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=1.372..1.372 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=1.126..1.226 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1839.796..1839.796 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.518..556.062 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=1.586..1.586 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=1.567..1.570 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1211157.33..1211157.33 rows=24077820 width=8) (actual time=61240.143..61240.143 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=21313.00..1211157.33 rows=24077820 width=8) (actual time=13039.946..27305.354 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.728..5920.613 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=14476.67..14476.67 rows=416667 width=8) (actual time=205.547..205.547 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=8) (actual time=0.635..92.205 rows=333333 loops=3)",,,,,,,,,""</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=2402952.46..2402952.47 rows=1 width=8) (actual time=53222.351..53222.351 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=2402952.24..2402952.45 rows=2 width=8) (actual time=53217.474..55584.697 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=2401952.24..2401952.25 rows=1 width=8) (actual time=53162.661..53162.661 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=529955.36..2341757.69 rows=24077820 width=0) (actual time=41779.847..51875.319 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Hash Cond: (ord_det.order_id = ord.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash Join  (cost=28635.18..1218479.51 rows=24077820 width=8) (actual time=12738.021..24697.247 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Hash Cond: (ord_det.product_id = prod.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.889..6127.996 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash  (cost=21798.84..21798.84 rows=416667 width=8) (actual time=810.946..810.947 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Buckets: 131072  Batches: 16  Memory Usage: 3520kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash Join  (cost=1593.00..21798.84 rows=416667 width=8) (actual time=24.389..293.428 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Hash Cond: (prod.subcategory_id = sub.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.870..106.361 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash  (cost=968.00..968.00 rows=50000 width=8) (actual time=23.156..23.166 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Buckets: 65536  Batches: 1  Memory Usage: 2466kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=8) (actual time=0.493..10.783 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=364600.31..364600.31 rows=8333350 width=8) (actual time=7762.901..7762.901 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Buckets: 131072  Batches: 512  Memory Usage: 2592kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=8) (actual time=1.539..4044.718 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord.discount_id = dis.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on ""order"" ord  (cost=0.00..250000.50 rows=8333350 width=16) (actual time=0.693..1841.124 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=0.813..0.814 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 1024  Batches: 1  Memory Usage: 28kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.595..0.686 rows=500 loops=3)",,,,,,,,,""</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=2395630.29..2395630.30 rows=1 width=8) (actual time=54205.522..54205.522 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=2395630.07..2395630.28 rows=2 width=8) (actual time=54201.773..56853.337 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=2394630.07..2394630.08 rows=1 width=8) (actual time=54147.701..54147.702 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=522633.19..2334435.52 rows=24077820 width=0) (actual time=42032.040..52837.299 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash Join  (cost=21313.00..1211157.33 rows=24077820 width=8) (actual time=12025.903..24413.967 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.909..5917.450 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash  (cost=14476.67..14476.67 rows=416667 width=8) (actual time=251.768..251.768 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=8) (actual time=1.052..107.500 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=364600.31..364600.31 rows=8333350 width=8) (actual time=8122.366..8122.367 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=8) (actual time=1.277..4079.132 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on ""order"" ord  (cost=0.00..250000.50 rows=8333350 width=16) (actual time=0.527..1865.024 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=0.704..0.704 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.438..0.548 rows=500 loops=3)",,,,,,,,,""</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -5938,6 +6297,294 @@
   <dxfs count="66">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -5959,24 +6606,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6227,13 +6856,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -6243,6 +6865,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6271,24 +6918,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6539,13 +7168,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -6555,6 +7177,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6583,24 +7230,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6851,13 +7480,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -6867,6 +7489,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6895,24 +7542,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7163,13 +7792,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -7179,6 +7801,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -7207,294 +7854,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -15701,16 +16060,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>220134</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>170039</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15744,16 +16103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>347134</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30339</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17639</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15783,2614 +16142,103 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="query_execution_times_4-8-2021-"/>
-      <sheetName val="4"/>
-      <sheetName val="5"/>
-      <sheetName val="6"/>
-      <sheetName val="7"/>
-      <sheetName val="8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="F2">
-            <v>57.168401479720998</v>
-          </cell>
-          <cell r="I2">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>58.829398632049497</v>
-          </cell>
-          <cell r="I3">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>60.4363465309143</v>
-          </cell>
-          <cell r="I4">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>62.016008138656602</v>
-          </cell>
-          <cell r="I5">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>62.7593736648559</v>
-          </cell>
-          <cell r="I6">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>63.835337400436401</v>
-          </cell>
-          <cell r="I7">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>64.283260107040405</v>
-          </cell>
-          <cell r="I8">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>67.841876029968205</v>
-          </cell>
-          <cell r="I9">
-            <v>54.249200000000009</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="F2">
-            <v>64.111865282058702</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>65.415230035781804</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>66.214899301528902</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>66.4734046459198</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>68.979399681091294</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>72.178172111511202</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>72.388733863830495</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>75.220482349395695</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>77.852528810501099</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>78.883352518081594</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>79.289369821548405</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>79.925810813903794</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>80.568239212036104</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>81.106976509094196</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>81.459065675735403</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>81.939436912536607</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>82.124507427215505</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>82.133117914199801</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>82.575406074523897</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>83.740251302719102</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>83.990244388580294</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>84.066630601882906</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>84.871098279953003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>85.093400955200195</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>86.937708377838106</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>88.431842327117906</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>89.383425712585407</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>89.987280845642005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="F2">
-            <v>77.780888080596895</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>79.806379079818697</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>79.948250055313096</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>81.119681835174504</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>81.220429182052598</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>81.450384616851807</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>81.6699440479278</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>81.755910634994507</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>82.660826921462998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>83.4007887840271</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>91.109717845916705</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>91.288473129272404</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>91.556833982467595</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>92.419638872146606</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>92.792262554168701</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>92.906881570815997</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>93.081078529357896</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>93.129626750946002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>93.246407985687199</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>93.461852312087998</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>93.486403942108097</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>93.494705438613806</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>93.685547351837101</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>94.033078670501695</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>94.085361003875704</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>94.137467861175494</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>94.255244016647296</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>94.331057071685706</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>94.457776784896794</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>94.574412345886202</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>94.591700792312594</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>94.821693420410099</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>94.992071151733398</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>95.224083423614502</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>95.392821311950598</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>95.573294878005896</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>95.580327272415104</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>95.623140573501502</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>95.962630271911607</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>96.086815834045396</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>96.106330871582003</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>96.192291259765597</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>96.5197656154632</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>96.806181430816594</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>97.167076587677002</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>97.197152376174898</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>97.312049865722599</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>99.119666099548297</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>99.969776391983004</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>100.47795653343201</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>116.92896723747199</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>117.80309581756499</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>118.72360587119999</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>119.429291009902</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>132.538995742797</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>138.12342023849399</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>138.803470373153</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>138.999284505844</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>139.057197332382</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>139.40634965896601</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="F2">
-            <v>79.292954206466604</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>80.354760408401404</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>81.491511821746798</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>83.352979660034094</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>85.680339813232393</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>87.375814199447603</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>87.762655973434406</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>87.957081794738698</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>88.304257631301795</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>88.644315242767306</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>89.244615316390906</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>89.271313428878699</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>89.779507160186697</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>89.8616783618927</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>89.891870021819997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>90.340369224548297</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>90.346971750259399</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>90.506538391113196</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>91.228241682052598</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>91.892797231674194</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>91.913186311721802</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>92.6808762550354</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>93.118663311004596</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>96.804022073745699</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>97.425329685211096</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>97.763197660446096</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>98.920881986617999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>99.862169504165607</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>100.49634385108899</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>100.502409934997</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>100.53903722763</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>101.013096570968</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>101.045995950698</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>101.281781196594</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>101.919150590896</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>102.33661413192701</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>102.67530059814401</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>102.757288217544</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>103.090041160583</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>103.231944084167</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>103.29477119445799</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>103.574285268783</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>103.87192654609601</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>103.962739229202</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>104.19247126579199</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>104.254868984222</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>104.276811122894</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>104.348998308181</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>104.365107297897</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>104.403469800949</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>104.43392372131299</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>104.477319717407</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>104.51669383049</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>104.56981801986601</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>104.590888500213</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>104.66370892524699</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>104.67287826538001</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>104.705620527267</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>104.736019611358</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>104.900749921798</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>104.971011877059</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>104.991779088974</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>105.04653930664</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>105.092626333236</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>105.304741621017</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>105.388444423675</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>105.403446674346</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>105.788784265518</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>105.867219448089</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>105.999173641204</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>106.392827510833</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>106.42130446434</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>106.714599847793</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>106.773776531219</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>106.798317432403</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>106.807363510131</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>106.89004945755001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>106.94961261749199</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>107.05693340301499</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>107.1190969944</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>107.135248661041</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>107.25462198257399</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>107.62078404426499</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>107.74811410903899</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>107.86029171943601</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>108.27323436736999</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>108.763558626174</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>109.702886104583</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>123.84539484977699</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>127.48548078536901</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>127.735641241073</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>127.884737730026</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>130.599287748336</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>140.16926074028001</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>142.284963369369</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>144.17017245292601</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>145.750984430313</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>148.126323461532</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>148.4325735569</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>150.91763448715199</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="F2">
-            <v>89.598628044128404</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>92.100451469421301</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>92.951755523681598</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>93.439178228378296</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>94.586327314376803</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>95.541099786758394</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>97.295752525329505</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>97.551801919937105</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>98.425034761428805</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>99.407508134841905</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>99.440817117690997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>99.481019020080495</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>99.621073246002197</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>100.033391237258</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>101.21050786972</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>101.904955387115</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>101.905710220336</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>102.226700305938</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>103.240973711013</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>104.60797691345201</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>104.878410339355</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>107.98309850692701</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>108.274425983428</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>108.53321266174299</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>108.70595622062601</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>108.93790769576999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>109.21356344223</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>109.242608785629</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>109.49267506599401</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>110.927889108657</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>111.076988458633</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>111.17219734191799</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>111.29387307167001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>111.34073472023</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>111.459823846817</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>111.645943641662</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>111.84937286376901</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>111.99191021919199</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>112.05009317398</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>112.141779184341</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>112.426930665969</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>112.504164457321</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>112.51789307594299</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>112.625209331512</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>112.676067113876</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>112.788394927978</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>112.942742824554</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>112.987496852874</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>113.10986495018</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>113.160712480545</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>113.16461181640599</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>113.388756513595</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>113.537393093109</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>113.726698875427</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>113.926347494125</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>114.186400651931</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>114.228091716766</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>114.23192620277401</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>114.26711797714199</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>114.314197301864</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>114.32891702651899</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>114.398421287536</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>114.454965829849</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>114.53800964355401</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>114.75864720344499</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>114.831794977188</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>114.88219618797299</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>115.203183174133</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>115.38885140419001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>115.656184196472</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>116.016170024871</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>116.083564519882</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>116.23961925506499</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>116.87157511711101</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>116.98015284538199</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>117.151449918746</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>117.338158130645</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>117.791645050048</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>118.11530590057301</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>118.522948265075</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>119.142732858657</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>120.063565731048</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>120.19785428047101</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>120.92833542823701</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>120.949874401092</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>121.01774597167901</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>122.08443760871801</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>125.28761100769</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>128.51447987556401</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>130.45507955551099</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>131.36581540107699</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>137.432056903839</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>151.37096643447799</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>153.79462909698401</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>156.638083934783</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>157.02475452422999</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>157.89556884765599</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>159.34820246696401</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>161.32801532745299</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>162.05790185928299</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="query_execution_times_4-7"/>
-      <sheetName val="4 tables"/>
-      <sheetName val="5 tables"/>
-      <sheetName val="6 tables"/>
-      <sheetName val="7 tables"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="F2">
-            <v>37.7245452404022</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="F2">
-            <v>27.399390220642001</v>
-          </cell>
-          <cell r="H2">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>46.136000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="F2">
-            <v>30.382395982742299</v>
-          </cell>
-          <cell r="H2">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61">
-            <v>54.984000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="F2">
-            <v>51.096215009689303</v>
-          </cell>
-          <cell r="H2">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101">
-            <v>56.363999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H325" totalsRowShown="0">
-  <autoFilter ref="A1:H325"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H325" totalsRowShown="0">
+  <autoFilter ref="A1:H325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash"/>
-    <tableColumn id="2" name="query" dataDxfId="65"/>
-    <tableColumn id="3" name="tables"/>
-    <tableColumn id="4" name="ratio"/>
-    <tableColumn id="5" name="nr of tables"/>
-    <tableColumn id="6" name="time s"/>
-    <tableColumn id="7" name="time optimizer s"/>
-    <tableColumn id="8" name="order"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="hash"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="query" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tables"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ratio"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nr of tables"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="time s"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="time optimizer s"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:H9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash" dataDxfId="9"/>
-    <tableColumn id="2" name="query" dataDxfId="8"/>
-    <tableColumn id="3" name="tables" dataDxfId="7"/>
-    <tableColumn id="4" name="ratio" dataDxfId="6"/>
-    <tableColumn id="5" name="nr of tables" dataDxfId="5"/>
-    <tableColumn id="6" name="time s" dataDxfId="4"/>
-    <tableColumn id="7" name="time optimizer s" dataDxfId="3"/>
-    <tableColumn id="8" name="order" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="hash" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="query" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="tables" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ratio" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="nr of tables" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="time s" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="time optimizer s" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="order" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:H17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:H17" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash" dataDxfId="22"/>
-    <tableColumn id="2" name="query" dataDxfId="21"/>
-    <tableColumn id="3" name="tables" dataDxfId="20"/>
-    <tableColumn id="4" name="ratio" dataDxfId="19"/>
-    <tableColumn id="5" name="nr of tables" dataDxfId="18"/>
-    <tableColumn id="6" name="time s" dataDxfId="17"/>
-    <tableColumn id="7" name="time optimizer s" dataDxfId="16"/>
-    <tableColumn id="8" name="order" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="hash" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="query" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="tables" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ratio" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="nr of tables" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="time s" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="time optimizer s" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="order" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H101" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
-  <autoFilter ref="A1:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:H101" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash" dataDxfId="35"/>
-    <tableColumn id="2" name="query" dataDxfId="34"/>
-    <tableColumn id="3" name="tables" dataDxfId="33"/>
-    <tableColumn id="4" name="ratio" dataDxfId="32"/>
-    <tableColumn id="5" name="nr of tables" dataDxfId="31"/>
-    <tableColumn id="6" name="time s" dataDxfId="30"/>
-    <tableColumn id="7" name="time optimizer s" dataDxfId="29"/>
-    <tableColumn id="8" name="order" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="hash" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="query" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tables" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ratio" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="nr of tables" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="time s" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="time optimizer s" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="order" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H101" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49">
-  <autoFilter ref="A1:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="A1:H101" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash" dataDxfId="48"/>
-    <tableColumn id="2" name="query" dataDxfId="47"/>
-    <tableColumn id="3" name="tables" dataDxfId="46"/>
-    <tableColumn id="4" name="ratio" dataDxfId="45"/>
-    <tableColumn id="5" name="nr of tables" dataDxfId="44"/>
-    <tableColumn id="6" name="time s" dataDxfId="43"/>
-    <tableColumn id="7" name="time optimizer s" dataDxfId="42"/>
-    <tableColumn id="8" name="order" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="hash" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="query" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="tables" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ratio" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="nr of tables" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="time s" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="time optimizer s" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="order" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H101" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
-  <autoFilter ref="A1:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:H101" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="hash" dataDxfId="61"/>
-    <tableColumn id="2" name="query" dataDxfId="60"/>
-    <tableColumn id="3" name="tables" dataDxfId="59"/>
-    <tableColumn id="4" name="ratio" dataDxfId="58"/>
-    <tableColumn id="5" name="nr of tables" dataDxfId="57"/>
-    <tableColumn id="6" name="time s" dataDxfId="56"/>
-    <tableColumn id="7" name="time optimizer s" dataDxfId="55"/>
-    <tableColumn id="8" name="order" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="hash" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="query" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="tables" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="ratio" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="nr of tables" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="time s" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="time optimizer s" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18692,7 +16540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27164,11 +25012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27178,7 +25026,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="5" t="s">
         <v>515</v>
       </c>
@@ -27204,7 +25052,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -27234,7 +25082,7 @@
         <v>56.54505422711366</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -27264,7 +25112,7 @@
         <v>56.54505422711366</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -27294,7 +25142,7 @@
         <v>56.54505422711366</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -27323,8 +25171,11 @@
         <f>AVERAGE(Table6[time optimizer s])</f>
         <v>56.54505422711366</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -27353,8 +25204,11 @@
         <f>AVERAGE(Table6[time optimizer s])</f>
         <v>56.54505422711366</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -27383,8 +25237,11 @@
         <f>AVERAGE(Table6[time optimizer s])</f>
         <v>56.54505422711366</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -27413,8 +25270,11 @@
         <f>AVERAGE(Table6[time optimizer s])</f>
         <v>56.54505422711366</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -27442,6 +25302,89 @@
       <c r="J9">
         <f>AVERAGE(Table6[time optimizer s])</f>
         <v>56.54505422711366</v>
+      </c>
+      <c r="M9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="M10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="M11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="M12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="M13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="M14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="M15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="M16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -27454,11 +25397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J17"/>
+      <selection activeCell="O5" sqref="O5:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27468,7 +25411,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" s="5" t="s">
         <v>515</v>
       </c>
@@ -27494,7 +25437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -27524,7 +25467,7 @@
         <v>56.245260208845089</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -27554,7 +25497,7 @@
         <v>56.245260208845089</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -27584,7 +25527,7 @@
         <v>56.245260208845089</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -27613,8 +25556,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="O5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -27643,8 +25589,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="O6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -27673,8 +25622,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="O7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -27703,8 +25655,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="O8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -27733,8 +25688,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="O9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -27763,8 +25721,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="O10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -27793,8 +25754,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="O11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -27823,8 +25787,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="O12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -27853,8 +25820,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="O13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -27883,8 +25853,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="O14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -27913,8 +25886,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="O15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -27943,8 +25919,11 @@
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="O16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
@@ -27972,6 +25951,74 @@
       <c r="J17">
         <f>AVERAGE(Table5[time optimizer s])</f>
         <v>56.245260208845089</v>
+      </c>
+      <c r="O17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="O18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="O19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="O20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="O21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="O22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="O23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="O24" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="O25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="O26" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="O27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="O28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="O29" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="O30" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -27984,11 +26031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27997,7 +26044,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" s="5" t="s">
         <v>515</v>
       </c>
@@ -28023,7 +26070,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -28053,7 +26100,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -28083,7 +26130,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -28112,8 +26159,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="P4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -28142,8 +26192,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="P5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -28172,8 +26225,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="P6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -28202,8 +26258,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="P7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -28232,8 +26291,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="P8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -28262,8 +26324,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="P9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -28292,8 +26357,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="P10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -28322,8 +26390,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="P11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -28352,8 +26423,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="P12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -28382,8 +26456,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="P13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -28412,8 +26489,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="P14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -28442,8 +26522,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="P15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -28472,8 +26555,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="P16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
@@ -28502,8 +26588,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="P17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -28532,8 +26621,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="P18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -28562,8 +26654,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="P19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
         <v>81</v>
       </c>
@@ -28592,8 +26687,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="P20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -28622,8 +26720,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="P21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
@@ -28652,8 +26753,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="P22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -28682,8 +26786,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="P23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>87</v>
       </c>
@@ -28712,8 +26819,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="P24" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
         <v>89</v>
       </c>
@@ -28742,8 +26852,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="P25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
@@ -28772,8 +26885,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="P26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -28802,8 +26918,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="P27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -28832,8 +26951,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="P28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -28862,8 +26984,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="P29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -28892,8 +27017,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="P30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -28922,8 +27050,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="P31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
@@ -28952,8 +27083,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="P32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
@@ -28982,8 +27116,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="P33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -29012,8 +27149,11 @@
         <f>AVERAGE(Table4[time optimizer s])</f>
         <v>104.23606307506519</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="P34" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>105</v>
       </c>
@@ -29043,7 +27183,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:16">
       <c r="A36" s="3" t="s">
         <v>107</v>
       </c>
@@ -29073,7 +27213,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
@@ -29103,7 +27243,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -29133,7 +27273,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>113</v>
       </c>
@@ -29163,7 +27303,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
@@ -29193,7 +27333,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>117</v>
       </c>
@@ -29223,7 +27363,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -29253,7 +27393,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>121</v>
       </c>
@@ -29283,7 +27423,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
         <v>123</v>
       </c>
@@ -29313,7 +27453,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -29343,7 +27483,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:16">
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
@@ -29373,7 +27513,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:16">
       <c r="A47" s="4" t="s">
         <v>125</v>
       </c>
@@ -29403,7 +27543,7 @@
         <v>104.23606307506519</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:16">
       <c r="A48" s="3" t="s">
         <v>127</v>
       </c>
@@ -31033,11 +29173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="R7" sqref="R7:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31046,7 +29186,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:18" ht="17">
       <c r="A1" s="5" t="s">
         <v>515</v>
       </c>
@@ -31072,7 +29212,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>195</v>
       </c>
@@ -31102,7 +29242,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>198</v>
       </c>
@@ -31132,7 +29272,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>200</v>
       </c>
@@ -31162,7 +29302,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>202</v>
       </c>
@@ -31192,7 +29332,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>204</v>
       </c>
@@ -31222,7 +29362,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>206</v>
       </c>
@@ -31251,8 +29391,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="R7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
         <v>200</v>
       </c>
@@ -31281,8 +29424,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="R8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>208</v>
       </c>
@@ -31311,8 +29457,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="R9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -31341,8 +29490,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="R10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>210</v>
       </c>
@@ -31371,8 +29523,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="R11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>212</v>
       </c>
@@ -31401,8 +29556,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="R12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>214</v>
       </c>
@@ -31431,8 +29589,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="R13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>216</v>
       </c>
@@ -31461,8 +29622,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="R14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4" t="s">
         <v>206</v>
       </c>
@@ -31491,8 +29655,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="R15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -31521,8 +29688,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="R16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>220</v>
       </c>
@@ -31551,8 +29721,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="R17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3" t="s">
         <v>195</v>
       </c>
@@ -31581,8 +29754,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="R18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4" t="s">
         <v>222</v>
       </c>
@@ -31611,8 +29787,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="R19" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
         <v>222</v>
       </c>
@@ -31641,8 +29820,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="R20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4" t="s">
         <v>224</v>
       </c>
@@ -31671,8 +29853,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="R21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3" t="s">
         <v>224</v>
       </c>
@@ -31701,8 +29886,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="R22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4" t="s">
         <v>226</v>
       </c>
@@ -31731,8 +29919,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="R23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
         <v>228</v>
       </c>
@@ -31761,8 +29952,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="R24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>216</v>
       </c>
@@ -31791,8 +29985,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="R25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="3" t="s">
         <v>230</v>
       </c>
@@ -31821,8 +30018,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="R26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="4" t="s">
         <v>232</v>
       </c>
@@ -31851,8 +30051,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="R27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
         <v>234</v>
       </c>
@@ -31881,8 +30084,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="R28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
         <v>236</v>
       </c>
@@ -31911,8 +30117,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="R29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="3" t="s">
         <v>238</v>
       </c>
@@ -31941,8 +30150,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="R30" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
         <v>240</v>
       </c>
@@ -31971,8 +30183,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="R31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="3" t="s">
         <v>202</v>
       </c>
@@ -32001,8 +30216,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="R32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="4" t="s">
         <v>242</v>
       </c>
@@ -32031,8 +30249,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="R33" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="3" t="s">
         <v>244</v>
       </c>
@@ -32061,8 +30282,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="R34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="4" t="s">
         <v>246</v>
       </c>
@@ -32091,8 +30315,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="R35" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="3" t="s">
         <v>248</v>
       </c>
@@ -32121,8 +30348,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="R36" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
         <v>242</v>
       </c>
@@ -32151,8 +30381,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="R37" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="3" t="s">
         <v>250</v>
       </c>
@@ -32181,8 +30414,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="R38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="4" t="s">
         <v>252</v>
       </c>
@@ -32211,8 +30447,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="R39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="3" t="s">
         <v>234</v>
       </c>
@@ -32241,8 +30480,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="R40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="4" t="s">
         <v>254</v>
       </c>
@@ -32271,8 +30513,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="R41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="3" t="s">
         <v>256</v>
       </c>
@@ -32301,8 +30546,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="R42" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="4" t="s">
         <v>258</v>
       </c>
@@ -32331,8 +30579,11 @@
         <f>AVERAGE(Table3[time optimizer s])</f>
         <v>103.61772614717447</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="R43" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
@@ -32362,7 +30613,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:18">
       <c r="A45" s="4" t="s">
         <v>195</v>
       </c>
@@ -32392,7 +30643,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:18">
       <c r="A46" s="3" t="s">
         <v>238</v>
       </c>
@@ -32422,7 +30673,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:18">
       <c r="A47" s="4" t="s">
         <v>262</v>
       </c>
@@ -32452,7 +30703,7 @@
         <v>103.61772614717447</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:18">
       <c r="A48" s="3" t="s">
         <v>264</v>
       </c>
@@ -34082,11 +32333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34095,7 +32346,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:23" ht="17">
       <c r="A1" s="5" t="s">
         <v>515</v>
       </c>
@@ -34121,7 +32372,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>330</v>
       </c>
@@ -34151,7 +32402,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
         <v>333</v>
       </c>
@@ -34181,7 +32432,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>335</v>
       </c>
@@ -34211,7 +32462,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
         <v>337</v>
       </c>
@@ -34241,7 +32492,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>
@@ -34271,7 +32522,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:23">
       <c r="A7" s="4" t="s">
         <v>341</v>
       </c>
@@ -34301,7 +32552,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
         <v>343</v>
       </c>
@@ -34331,7 +32582,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:23">
       <c r="A9" s="4" t="s">
         <v>345</v>
       </c>
@@ -34361,7 +32612,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
         <v>347</v>
       </c>
@@ -34391,7 +32642,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
         <v>349</v>
       </c>
@@ -34421,7 +32672,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
         <v>351</v>
       </c>
@@ -34450,8 +32701,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="W12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
         <v>353</v>
       </c>
@@ -34480,8 +32734,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="W13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="3" t="s">
         <v>355</v>
       </c>
@@ -34510,8 +32767,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="W14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>357</v>
       </c>
@@ -34540,8 +32800,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="W15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="3" t="s">
         <v>339</v>
       </c>
@@ -34570,8 +32833,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="W16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="4" t="s">
         <v>359</v>
       </c>
@@ -34600,8 +32866,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="W17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="3" t="s">
         <v>361</v>
       </c>
@@ -34630,8 +32899,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="W18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="4" t="s">
         <v>363</v>
       </c>
@@ -34660,8 +32932,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="W19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="3" t="s">
         <v>365</v>
       </c>
@@ -34690,8 +32965,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="W20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="4" t="s">
         <v>367</v>
       </c>
@@ -34720,8 +32998,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="W21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="3" t="s">
         <v>369</v>
       </c>
@@ -34750,8 +33031,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="W22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="4" t="s">
         <v>371</v>
       </c>
@@ -34780,8 +33064,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="W23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="3" t="s">
         <v>373</v>
       </c>
@@ -34810,8 +33097,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="W24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="4" t="s">
         <v>375</v>
       </c>
@@ -34840,8 +33130,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="W25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="3" t="s">
         <v>377</v>
       </c>
@@ -34870,8 +33163,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="W26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="4" t="s">
         <v>379</v>
       </c>
@@ -34900,8 +33196,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="W27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="3" t="s">
         <v>381</v>
       </c>
@@ -34930,8 +33229,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="W28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="4" t="s">
         <v>383</v>
       </c>
@@ -34960,8 +33262,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="W29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="3" t="s">
         <v>385</v>
       </c>
@@ -34990,8 +33295,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="W30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="4" t="s">
         <v>387</v>
       </c>
@@ -35020,8 +33328,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="W31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="3" t="s">
         <v>389</v>
       </c>
@@ -35050,8 +33361,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="W32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>391</v>
       </c>
@@ -35080,8 +33394,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="W33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="3" t="s">
         <v>393</v>
       </c>
@@ -35110,8 +33427,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="W34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>395</v>
       </c>
@@ -35140,8 +33460,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="W35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="3" t="s">
         <v>397</v>
       </c>
@@ -35170,8 +33493,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="W36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="4" t="s">
         <v>399</v>
       </c>
@@ -35200,8 +33526,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="W37" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="3" t="s">
         <v>401</v>
       </c>
@@ -35230,8 +33559,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="W38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="4" t="s">
         <v>403</v>
       </c>
@@ -35260,8 +33592,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="W39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="3" t="s">
         <v>405</v>
       </c>
@@ -35290,8 +33625,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="W40" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
         <v>407</v>
       </c>
@@ -35320,8 +33658,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="W41" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="3" t="s">
         <v>409</v>
       </c>
@@ -35350,8 +33691,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="W42" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="4" t="s">
         <v>411</v>
       </c>
@@ -35380,8 +33724,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="W43" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="3" t="s">
         <v>413</v>
       </c>
@@ -35410,8 +33757,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="W44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="4" t="s">
         <v>415</v>
       </c>
@@ -35440,8 +33790,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="W45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="3" t="s">
         <v>417</v>
       </c>
@@ -35470,8 +33823,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="W46" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
         <v>419</v>
       </c>
@@ -35500,8 +33856,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="W47" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="3" t="s">
         <v>421</v>
       </c>
@@ -35530,8 +33889,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="W48" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>423</v>
       </c>
@@ -35560,8 +33922,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="W49" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="3" t="s">
         <v>425</v>
       </c>
@@ -35590,8 +33955,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="W50" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="4" t="s">
         <v>427</v>
       </c>
@@ -35620,8 +33988,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="W51" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="3" t="s">
         <v>429</v>
       </c>
@@ -35650,8 +34021,11 @@
         <f>AVERAGE(Table2[time optimizer s])</f>
         <v>104.4736200761791</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="W52" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="4" t="s">
         <v>431</v>
       </c>
@@ -35681,7 +34055,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:23">
       <c r="A54" s="3" t="s">
         <v>433</v>
       </c>
@@ -35711,7 +34085,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:23">
       <c r="A55" s="4" t="s">
         <v>435</v>
       </c>
@@ -35741,7 +34115,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:23">
       <c r="A56" s="3" t="s">
         <v>361</v>
       </c>
@@ -35771,7 +34145,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:23">
       <c r="A57" s="4" t="s">
         <v>437</v>
       </c>
@@ -35801,7 +34175,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:23">
       <c r="A58" s="3" t="s">
         <v>439</v>
       </c>
@@ -35831,7 +34205,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:23">
       <c r="A59" s="4" t="s">
         <v>441</v>
       </c>
@@ -35861,7 +34235,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:23">
       <c r="A60" s="3" t="s">
         <v>443</v>
       </c>
@@ -35891,7 +34265,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:23">
       <c r="A61" s="4" t="s">
         <v>445</v>
       </c>
@@ -35921,7 +34295,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:23">
       <c r="A62" s="3" t="s">
         <v>447</v>
       </c>
@@ -35951,7 +34325,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:23">
       <c r="A63" s="4" t="s">
         <v>449</v>
       </c>
@@ -35981,7 +34355,7 @@
         <v>104.4736200761791</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:23">
       <c r="A64" s="3" t="s">
         <v>451</v>
       </c>
